--- a/FunctionPoints.xlsx
+++ b/FunctionPoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CFC90-D78F-4F87-B9F4-31BCB7E2F946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AD8FB-8829-443C-80EB-5C5B2C03BD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F8F9221F-4460-4E26-8689-6AA5D426773E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F8F9221F-4460-4E26-8689-6AA5D426773E}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="111">
   <si>
     <t>UC 1</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Delete an Solution</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Solutionname, Solutiongruppe, Abgabe, Lehrer</t>
   </si>
   <si>
@@ -380,6 +377,21 @@
   </si>
   <si>
     <t>Gruppe, Solution</t>
+  </si>
+  <si>
+    <t>&lt;- Outliers set to 0</t>
+  </si>
+  <si>
+    <t>Create a Task</t>
+  </si>
+  <si>
+    <t>Delete an Task</t>
+  </si>
+  <si>
+    <t>Klassenname</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1356,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1536,6 +1548,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,50 +1639,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,57 +1697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,10 +1912,10 @@
                   <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.8</c:v>
@@ -1923,10 +1936,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.75</c:v>
@@ -1972,59 +1985,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000">
-                    <a:alpha val="50000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15554614040618092"/>
-                  <c:y val="-2.9187565219395027E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$C$9:$C$13</c:f>
@@ -2041,10 +2001,10 @@
                   <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,13 +2016,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,15 +3262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>14653</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:rowOff>14655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>754672</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3632,7 +3598,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:O18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,57 +3617,57 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3730,44 +3696,44 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="G18" s="87" t="s">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="G18" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="L18" s="87" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="L18" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="89"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
     </row>
     <row r="19" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="85"/>
-      <c r="J19" s="86"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="84" t="s">
+      <c r="M19" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
@@ -3923,18 +3889,18 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
@@ -3969,161 +3935,168 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="103" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="103" t="s">
+      <c r="E28" s="90"/>
+      <c r="F28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="103" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="104"/>
-      <c r="J28" s="103" t="s">
+      <c r="I28" s="90"/>
+      <c r="J28" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="104"/>
+      <c r="K28" s="90"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="2:11" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="94"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="96"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="96"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="98"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:P4"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="L18:O18"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B34:C39"/>
     <mergeCell ref="D34:E39"/>
@@ -4135,13 +4108,6 @@
     <mergeCell ref="F28:G33"/>
     <mergeCell ref="H28:I33"/>
     <mergeCell ref="J28:K33"/>
-    <mergeCell ref="B2:P4"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="L18:O18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26:K26" r:id="rId1" display="https://specialties.bayt.com/en/specialties/q/88841/explain-the-different-elements-of-function-points-ftr-ilf-eif-ei-eo-eq-and-gsc/" xr:uid="{58F7DAE2-02FB-46FC-BAF1-1F4CB00374D2}"/>
@@ -4157,7 +4123,7 @@
   <dimension ref="B1:T46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:L18"/>
+      <selection activeCell="E40" sqref="E40:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,39 +4140,39 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="112" t="s">
+      <c r="D2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
-      <c r="N2" s="105" t="s">
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="N2" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="125"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="121"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
@@ -4225,13 +4191,13 @@
       <c r="J3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="124"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="121"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
@@ -4264,7 +4230,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="121"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="41" t="s">
         <v>41</v>
       </c>
@@ -4297,7 +4263,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="121"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="41" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4296,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="121"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="41" t="s">
         <v>38</v>
       </c>
@@ -4363,7 +4329,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="121"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="42" t="s">
         <v>39</v>
       </c>
@@ -4396,24 +4362,24 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121"/>
-      <c r="C9" s="115" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="87">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="103">
         <v>22.4</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="121"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="44"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4426,28 +4392,28 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
@@ -4466,13 +4432,13 @@
       <c r="J12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="124"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="39" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4471,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="121"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="41" t="s">
         <v>41</v>
       </c>
@@ -4538,7 +4504,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="121"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="41" t="s">
         <v>42</v>
       </c>
@@ -4571,7 +4537,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="121"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="41" t="s">
         <v>38</v>
       </c>
@@ -4604,7 +4570,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="42" t="s">
         <v>39</v>
       </c>
@@ -4637,24 +4603,24 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="121"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="87">
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="103">
         <v>22.4</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="121"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="44"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -4667,28 +4633,28 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="121"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="18" t="s">
         <v>8</v>
       </c>
@@ -4707,13 +4673,13 @@
       <c r="J21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="123" t="s">
+      <c r="K21" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="124"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="121"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="39" t="s">
         <v>40</v>
       </c>
@@ -4746,7 +4712,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="41" t="s">
         <v>41</v>
       </c>
@@ -4779,7 +4745,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="121"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="41" t="s">
         <v>42</v>
       </c>
@@ -4812,7 +4778,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="41" t="s">
         <v>38</v>
       </c>
@@ -4845,7 +4811,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="42" t="s">
         <v>39</v>
       </c>
@@ -4878,24 +4844,24 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="121"/>
-      <c r="C27" s="115" t="s">
+      <c r="B27" s="112"/>
+      <c r="C27" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="87">
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="103">
         <v>22.4</v>
       </c>
-      <c r="L27" s="89"/>
+      <c r="L27" s="105"/>
     </row>
     <row r="28" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="121"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="44"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -4908,28 +4874,28 @@
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="121"/>
-      <c r="C29" s="108" t="s">
+      <c r="B29" s="112"/>
+      <c r="C29" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="121"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="18" t="s">
         <v>8</v>
       </c>
@@ -4948,13 +4914,13 @@
       <c r="J30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="123" t="s">
+      <c r="K30" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="124"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="121"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="39" t="s">
         <v>40</v>
       </c>
@@ -4987,7 +4953,7 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="121"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="41" t="s">
         <v>41</v>
       </c>
@@ -5020,7 +4986,7 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="121"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="41" t="s">
         <v>42</v>
       </c>
@@ -5053,7 +5019,7 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="121"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="41" t="s">
         <v>38</v>
       </c>
@@ -5086,7 +5052,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="121"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="42" t="s">
         <v>39</v>
       </c>
@@ -5119,24 +5085,24 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="115" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="87">
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="103">
         <v>7.8</v>
       </c>
-      <c r="L36" s="89"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="2:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="121"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="44"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -5149,28 +5115,28 @@
       <c r="L37" s="15"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="121"/>
-      <c r="C38" s="108" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="121"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="18" t="s">
         <v>8</v>
       </c>
@@ -5189,13 +5155,13 @@
       <c r="J39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="123" t="s">
+      <c r="K39" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="124"/>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="121"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="39" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5194,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="121"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="41" t="s">
         <v>41</v>
       </c>
@@ -5261,7 +5227,7 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="121"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="41" t="s">
         <v>42</v>
       </c>
@@ -5294,7 +5260,7 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="121"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="41" t="s">
         <v>38</v>
       </c>
@@ -5327,7 +5293,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="121"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="42" t="s">
         <v>39</v>
       </c>
@@ -5360,21 +5326,21 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="122"/>
-      <c r="C45" s="115" t="s">
+      <c r="B45" s="113"/>
+      <c r="C45" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="118">
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109">
         <v>26.8</v>
       </c>
-      <c r="L45" s="119"/>
+      <c r="L45" s="110"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K46" s="3"/>
@@ -5382,6 +5348,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="B2:B45"/>
@@ -5398,22 +5380,6 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:L38"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Configuration!B27" display="EI" xr:uid="{9CBC5B3D-8587-4FE7-AE62-AF70752BEF69}"/>
@@ -5493,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352C6E5-8850-483E-8387-C41206E87944}">
   <dimension ref="B1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,39 +5477,39 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
-      <c r="N2" s="105" t="s">
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="N2" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="125"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="121"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
@@ -5562,13 +5528,13 @@
       <c r="J3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="124"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="121"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
@@ -5601,7 +5567,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="121"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="41" t="s">
         <v>41</v>
       </c>
@@ -5609,19 +5575,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="19">
         <v>3</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="19">
         <v>3</v>
@@ -5634,7 +5600,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="121"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="41" t="s">
         <v>42</v>
       </c>
@@ -5667,7 +5633,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="121"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="41" t="s">
         <v>38</v>
       </c>
@@ -5700,7 +5666,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="121"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="42" t="s">
         <v>39</v>
       </c>
@@ -5733,24 +5699,24 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121"/>
-      <c r="C9" s="115" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="87">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="103">
         <v>22.4</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="121"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="44"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -5763,28 +5729,28 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
@@ -5803,13 +5769,13 @@
       <c r="J12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="124"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="39" t="s">
         <v>40</v>
       </c>
@@ -5842,7 +5808,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="121"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="41" t="s">
         <v>41</v>
       </c>
@@ -5875,7 +5841,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="121"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="41" t="s">
         <v>42</v>
       </c>
@@ -5883,19 +5849,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="19">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" s="19">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
@@ -5908,7 +5874,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="121"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="41" t="s">
         <v>38</v>
       </c>
@@ -5941,7 +5907,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="42" t="s">
         <v>39</v>
       </c>
@@ -5974,24 +5940,24 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="121"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="87">
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="103">
         <v>7.8</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="121"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="44"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -6004,28 +5970,28 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="121"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="18" t="s">
         <v>8</v>
       </c>
@@ -6044,13 +6010,13 @@
       <c r="J21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="123" t="s">
+      <c r="K21" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="124"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="121"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="39" t="s">
         <v>40</v>
       </c>
@@ -6058,19 +6024,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="19">
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="19">
         <v>2</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="19">
         <v>2</v>
@@ -6083,7 +6049,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="41" t="s">
         <v>41</v>
       </c>
@@ -6116,7 +6082,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="121"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="41" t="s">
         <v>42</v>
       </c>
@@ -6149,7 +6115,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="41" t="s">
         <v>38</v>
       </c>
@@ -6182,7 +6148,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="42" t="s">
         <v>39</v>
       </c>
@@ -6215,24 +6181,24 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="121"/>
-      <c r="C27" s="115" t="s">
+      <c r="B27" s="112"/>
+      <c r="C27" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="87">
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="103">
         <v>7.8</v>
       </c>
-      <c r="L27" s="89"/>
+      <c r="L27" s="105"/>
     </row>
     <row r="28" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="121"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="44"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -6245,28 +6211,28 @@
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="121"/>
-      <c r="C29" s="108" t="s">
+      <c r="B29" s="112"/>
+      <c r="C29" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="E29" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="121"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="18" t="s">
         <v>8</v>
       </c>
@@ -6285,123 +6251,195 @@
       <c r="J30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="123" t="s">
+      <c r="K30" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="124"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="121"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="45"/>
+      <c r="E31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="L31" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="121"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="45"/>
+      <c r="E32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="L32" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="121"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="46"/>
+      <c r="E33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="L33" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="121"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="46"/>
+      <c r="E34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="L34" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="121"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="47"/>
+      <c r="E35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="L35" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="115" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="89"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="103">
+        <v>7.8</v>
+      </c>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="2:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="121"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="44"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -6414,28 +6452,28 @@
       <c r="L37" s="15"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="121"/>
-      <c r="C38" s="108" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
+      <c r="E38" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="121"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="18" t="s">
         <v>8</v>
       </c>
@@ -6454,120 +6492,186 @@
       <c r="J39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="123" t="s">
+      <c r="K39" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="124"/>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="121"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="45"/>
+      <c r="E40" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="19">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="L40" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="121"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="45"/>
+      <c r="E41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="19">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="19">
+        <v>1</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="L41" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="121"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19"/>
+      <c r="E42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
       <c r="K42" s="46"/>
       <c r="L42" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="121"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="19"/>
+      <c r="E43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
       <c r="K43" s="46"/>
       <c r="L43" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="121"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="20"/>
+      <c r="E44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="20">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="20">
+        <v>0</v>
+      </c>
       <c r="K44" s="47"/>
       <c r="L44" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="122"/>
-      <c r="C45" s="115" t="s">
+      <c r="B45" s="113"/>
+      <c r="C45" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="119"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109">
+        <v>7.8</v>
+      </c>
+      <c r="L45" s="110"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K46" s="3"/>
@@ -6575,6 +6679,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="B2:B45"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -6591,22 +6711,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:L38"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Configuration!B27" display="EI" xr:uid="{92380171-6CB4-4765-9097-06E9D5C5C551}"/>
@@ -6686,8 +6790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3E01B-C581-4D52-A104-60842D2EC276}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6695,6 +6799,7 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
@@ -6702,12 +6807,12 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
@@ -6745,30 +6850,30 @@
       <c r="B5" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="54" cm="1">
-        <f t="array" ref="C5:D5">'Use Case Semester 1.'!K18:L18</f>
-        <v>22.4</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
+      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55"/>
       <c r="E5" s="56">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="54" cm="1">
-        <f t="array" ref="C6:D6">'Use Case Semester 1.'!K27:L27</f>
-        <v>22.4</v>
-      </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
+      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55"/>
       <c r="E6" s="56">
-        <v>1.25</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -6813,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6827,8 +6932,8 @@
       <c r="D10" s="55">
         <v>0</v>
       </c>
-      <c r="E10" s="56">
-        <v>1.25</v>
+      <c r="E10" s="70">
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -6842,8 +6947,8 @@
       <c r="D11" s="55">
         <v>0</v>
       </c>
-      <c r="E11" s="56">
-        <v>2</v>
+      <c r="E11" s="70">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -6852,12 +6957,14 @@
       </c>
       <c r="C12" s="54" cm="1">
         <f t="array" ref="C12:D12">'Use Case Semester 2.'!K36:L36</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="D12" s="55">
         <v>0</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="56">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="66" t="s">
@@ -6865,12 +6972,14 @@
       </c>
       <c r="C13" s="62" cm="1">
         <f t="array" ref="C13:D13">'Use Case Semester 2.'!K45:L45</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="58">
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
